--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.0957412841844</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H2">
-        <v>37.0957412841844</v>
+        <v>115.808581</v>
       </c>
       <c r="I2">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J2">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.23528463159971</v>
+        <v>1.934841</v>
       </c>
       <c r="N2">
-        <v>2.23528463159971</v>
+        <v>5.804523</v>
       </c>
       <c r="O2">
-        <v>0.276009240119799</v>
+        <v>0.1811319458224623</v>
       </c>
       <c r="P2">
-        <v>0.276009240119799</v>
+        <v>0.1811319458224623</v>
       </c>
       <c r="Q2">
-        <v>82.91954039033628</v>
+        <v>74.69039689020698</v>
       </c>
       <c r="R2">
-        <v>82.91954039033628</v>
+        <v>672.213572011863</v>
       </c>
       <c r="S2">
-        <v>0.07119339512906728</v>
+        <v>0.04800381804525779</v>
       </c>
       <c r="T2">
-        <v>0.07119339512906728</v>
+        <v>0.04800381804525779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.0957412841844</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H3">
-        <v>37.0957412841844</v>
+        <v>115.808581</v>
       </c>
       <c r="I3">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J3">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.86330159917107</v>
+        <v>2.286000666666667</v>
       </c>
       <c r="N3">
-        <v>5.86330159917107</v>
+        <v>6.858002</v>
       </c>
       <c r="O3">
-        <v>0.7239907598802011</v>
+        <v>0.2140060857221753</v>
       </c>
       <c r="P3">
-        <v>0.7239907598802011</v>
+        <v>0.2140060857221753</v>
       </c>
       <c r="Q3">
-        <v>217.5035191939947</v>
+        <v>88.24616445724023</v>
       </c>
       <c r="R3">
-        <v>217.5035191939947</v>
+        <v>794.215480115162</v>
       </c>
       <c r="S3">
-        <v>0.1867450532292794</v>
+        <v>0.0567161643018753</v>
       </c>
       <c r="T3">
-        <v>0.1867450532292794</v>
+        <v>0.05671616430187529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>74.2745906120449</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H4">
-        <v>74.2745906120449</v>
+        <v>115.808581</v>
       </c>
       <c r="I4">
-        <v>0.5164547732893082</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J4">
-        <v>0.5164547732893082</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.23528463159971</v>
+        <v>6.461100666666667</v>
       </c>
       <c r="N4">
-        <v>2.23528463159971</v>
+        <v>19.383302</v>
       </c>
       <c r="O4">
-        <v>0.276009240119799</v>
+        <v>0.6048619684553623</v>
       </c>
       <c r="P4">
-        <v>0.276009240119799</v>
+        <v>0.6048619684553623</v>
       </c>
       <c r="Q4">
-        <v>166.0248509134641</v>
+        <v>249.4169666349402</v>
       </c>
       <c r="R4">
-        <v>166.0248509134641</v>
+        <v>2244.752699714462</v>
       </c>
       <c r="S4">
-        <v>0.142546289531825</v>
+        <v>0.1603012861391507</v>
       </c>
       <c r="T4">
-        <v>0.142546289531825</v>
+        <v>0.1603012861391507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.2745906120449</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H5">
-        <v>74.2745906120449</v>
+        <v>223.367775</v>
       </c>
       <c r="I5">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J5">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.86330159917107</v>
+        <v>1.934841</v>
       </c>
       <c r="N5">
-        <v>5.86330159917107</v>
+        <v>5.804523</v>
       </c>
       <c r="O5">
-        <v>0.7239907598802011</v>
+        <v>0.1811319458224623</v>
       </c>
       <c r="P5">
-        <v>0.7239907598802011</v>
+        <v>0.1811319458224623</v>
       </c>
       <c r="Q5">
-        <v>435.4943259133794</v>
+        <v>144.060376382925</v>
       </c>
       <c r="R5">
-        <v>435.4943259133794</v>
+        <v>1296.543387446325</v>
       </c>
       <c r="S5">
-        <v>0.3739084837574833</v>
+        <v>0.09258818246183399</v>
       </c>
       <c r="T5">
-        <v>0.3739084837574833</v>
+        <v>0.09258818246183399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.4459216335598</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H6">
-        <v>32.4459216335598</v>
+        <v>223.367775</v>
       </c>
       <c r="I6">
-        <v>0.2256067783523451</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J6">
-        <v>0.2256067783523451</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.23528463159971</v>
+        <v>2.286000666666667</v>
       </c>
       <c r="N6">
-        <v>2.23528463159971</v>
+        <v>6.858002</v>
       </c>
       <c r="O6">
-        <v>0.276009240119799</v>
+        <v>0.2140060857221753</v>
       </c>
       <c r="P6">
-        <v>0.276009240119799</v>
+        <v>0.2140060857221753</v>
       </c>
       <c r="Q6">
-        <v>72.52586998558478</v>
+        <v>170.2062941872833</v>
       </c>
       <c r="R6">
-        <v>72.52586998558478</v>
+        <v>1531.85664768555</v>
       </c>
       <c r="S6">
-        <v>0.06226955545890669</v>
+        <v>0.1093922688392522</v>
       </c>
       <c r="T6">
-        <v>0.06226955545890669</v>
+        <v>0.1093922688392522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.4459216335598</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H7">
-        <v>32.4459216335598</v>
+        <v>223.367775</v>
       </c>
       <c r="I7">
-        <v>0.2256067783523451</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J7">
-        <v>0.2256067783523451</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.86330159917107</v>
+        <v>6.461100666666667</v>
       </c>
       <c r="N7">
-        <v>5.86330159917107</v>
+        <v>19.383302</v>
       </c>
       <c r="O7">
-        <v>0.7239907598802011</v>
+        <v>0.6048619684553623</v>
       </c>
       <c r="P7">
-        <v>0.7239907598802011</v>
+        <v>0.6048619684553623</v>
       </c>
       <c r="Q7">
-        <v>190.2402242006304</v>
+        <v>481.0672266547833</v>
       </c>
       <c r="R7">
-        <v>190.2402242006304</v>
+        <v>4329.60503989305</v>
       </c>
       <c r="S7">
-        <v>0.1633372228934384</v>
+        <v>0.3091838385839512</v>
       </c>
       <c r="T7">
-        <v>0.1633372228934384</v>
+        <v>0.3091838385839512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>32.60069533333333</v>
+      </c>
+      <c r="H8">
+        <v>97.80208599999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="J8">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.934841</v>
+      </c>
+      <c r="N8">
+        <v>5.804523</v>
+      </c>
+      <c r="O8">
+        <v>0.1811319458224623</v>
+      </c>
+      <c r="P8">
+        <v>0.1811319458224623</v>
+      </c>
+      <c r="Q8">
+        <v>63.07716195944198</v>
+      </c>
+      <c r="R8">
+        <v>567.6944576349779</v>
+      </c>
+      <c r="S8">
+        <v>0.04053994531537049</v>
+      </c>
+      <c r="T8">
+        <v>0.04053994531537049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.60069533333333</v>
+      </c>
+      <c r="H9">
+        <v>97.80208599999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="J9">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.286000666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.858002</v>
+      </c>
+      <c r="O9">
+        <v>0.2140060857221753</v>
+      </c>
+      <c r="P9">
+        <v>0.2140060857221753</v>
+      </c>
+      <c r="Q9">
+        <v>74.52521126579688</v>
+      </c>
+      <c r="R9">
+        <v>670.726901392172</v>
+      </c>
+      <c r="S9">
+        <v>0.04789765258104783</v>
+      </c>
+      <c r="T9">
+        <v>0.04789765258104783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>32.60069533333333</v>
+      </c>
+      <c r="H10">
+        <v>97.80208599999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="J10">
+        <v>0.2238144416286788</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.461100666666667</v>
+      </c>
+      <c r="N10">
+        <v>19.383302</v>
+      </c>
+      <c r="O10">
+        <v>0.6048619684553623</v>
+      </c>
+      <c r="P10">
+        <v>0.6048619684553623</v>
+      </c>
+      <c r="Q10">
+        <v>210.6363743519969</v>
+      </c>
+      <c r="R10">
+        <v>1895.727369167972</v>
+      </c>
+      <c r="S10">
+        <v>0.1353768437322604</v>
+      </c>
+      <c r="T10">
+        <v>0.1353768437322604</v>
       </c>
     </row>
   </sheetData>
